--- a/LCAPI/obj/Release/net7.0/PubTmp/Out/lc_resource/ae_data.xlsx
+++ b/LCAPI/obj/Release/net7.0/PubTmp/Out/lc_resource/ae_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PXQ\Desktop\LC\LCAPI\lc_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B73730-A78A-48A7-ABA4-83BAAD9F6FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470AD10D-1F0D-4369-816D-CE247D5FD9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20280" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28110" yWindow="-120" windowWidth="28230" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:XFD283"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="多个标签使用空格分开" sqref="C1:C1048576" xr:uid="{E0CE42ED-A862-4597-9FB9-3A70EA069DA9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意包含年月日信息的时间值都可以。_x000a_单元格类型务必是文本类型_x000a_例：_x000a_2002年1月2日_x000a_2002.1.2_x000a_2002/12/02_x000a_44569 这种不可以" sqref="D1:D1048576" xr:uid="{8CE4CD0A-371D-4721-84D7-7C28A5455F16}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意文本" sqref="N1:N1048576 L1:L1048576 J1:J1048576 E1:H1048576" xr:uid="{510536EE-0F7A-4358-91BB-19F90AD526C0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="文件大小，单位为MB，直接填写数字_x000a_务必改为文本格式_x000a_科学计数法无法识别_x000a_例_x000a_1_x000a_5000_x000a_3.2" sqref="I1:I1048576" xr:uid="{A0E9693F-270B-436B-8BD5-339C1A9E2B5A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意字符串，请标明单位_x000a_例：_x000a_1KB，2.5MB，5.9GB，7TB，10PB" sqref="I1:I1048576" xr:uid="{A0E9693F-270B-436B-8BD5-339C1A9E2B5A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="使用多个插件时，使用空格隔开_x000a_例：_x000a_PluginA PlugInB" sqref="M1:M1048576" xr:uid="{2A0C3E75-7491-43D4-8904-3F75D4138B56}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="只接受一种格式，时:分:秒_x000a_单元格格式为文本" sqref="K1:K1048576" xr:uid="{9576EE49-3535-4B3B-9AEE-3CA724C4EB36}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="可填写值：中文，英文，日文，俄文，其他_x000a_如果具有多种语言，使用空格隔开_x000a_例：中文 英文" sqref="A1:A1048576" xr:uid="{589D6881-1ECA-4F1D-8349-E9A352F40801}"/>
